--- a/srt_4_Half_Table_20191201va.xlsx
+++ b/srt_4_Half_Table_20191201va.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="24200" windowHeight="14460"/>
+    <workbookView xWindow="5000" yWindow="1340" windowWidth="20600" windowHeight="14460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -476,14 +476,14 @@
     <t>11.11111</t>
   </si>
   <si>
-    <t>100.0000</t>
+    <t>100.00000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -493,6 +493,22 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -515,14 +531,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -839,7 +859,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S130" sqref="C130:S130"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
